--- a/src/assets/transferExcel.xlsx
+++ b/src/assets/transferExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="330" windowWidth="27555" windowHeight="12060"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
   <si>
     <t>Employee Code</t>
   </si>
@@ -334,17 +334,74 @@
     <t>Modify Transfer</t>
   </si>
   <si>
-    <t>PARBINDER SINGH CHHETRI</t>
-  </si>
-  <si>
-    <t>MINAKSHI YADAV</t>
+    <t>To be analyze</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER</t>
+  </si>
+  <si>
+    <t>ORDER DATE</t>
+  </si>
+  <si>
+    <t>No.F.11055/PGT(ENG)/LDCE/2023/KVS(HQ)/Estt-II/7717</t>
+  </si>
+  <si>
+    <t>05.10.2023</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>MOE-786</t>
+  </si>
+  <si>
+    <t>J SUMITA</t>
+  </si>
+  <si>
+    <t>DIVYA ABAAN</t>
+  </si>
+  <si>
+    <t>RADHA VORUGANTI</t>
+  </si>
+  <si>
+    <t>JABEEN ABBAS ALI FAZIL</t>
+  </si>
+  <si>
+    <t>DEEPAK KUMAR</t>
+  </si>
+  <si>
+    <t>SONIYA JOSEPH</t>
+  </si>
+  <si>
+    <t>BINDU PILLAI</t>
+  </si>
+  <si>
+    <t>PREETY KOUL</t>
+  </si>
+  <si>
+    <t>SUNIL YADAV</t>
+  </si>
+  <si>
+    <t>MADHUSHRI MISHRA</t>
+  </si>
+  <si>
+    <t>INDRILA MUKHERJEE</t>
+  </si>
+  <si>
+    <t>APARNA PANDEY</t>
+  </si>
+  <si>
+    <t>NEELAM BHANOT</t>
+  </si>
+  <si>
+    <t>RANJIT KAUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,8 +424,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF323232"/>
+      <name val="PoppinsMedium"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,11 +449,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -400,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -410,6 +504,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,6 +600,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -533,6 +635,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,83 +811,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="65.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="21" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>81283</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C2">
-        <v>1925</v>
-      </c>
-      <c r="D2">
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>47629</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1816</v>
+      </c>
+      <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>47264</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3">
-        <v>1814</v>
-      </c>
-      <c r="D3">
+      <c r="F2" s="9">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>49738</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1679</v>
+      </c>
+      <c r="E3" s="9">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="F3" s="9">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>28353</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1510</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>58575</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2092</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>48380</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1374</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>50232</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1808</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7871</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1771</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>23659</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2397</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>42090</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1121</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>58833</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1055</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>36188</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1259</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>58515</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1732</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>47640</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1692</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>52608</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1298</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -1235,13 +1684,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5">
+        <v>70540</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>